--- a/Test Plan/Test_Case_4.4.2_demux.xlsx
+++ b/Test Plan/Test_Case_4.4.2_demux.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PSU\ECE411-Practicum\Gitrepo1\Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\Desktop\School\Practicum2014\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Step</t>
   </si>
   <si>
-    <t>MPS-Display-01</t>
-  </si>
-  <si>
     <t>Checks that binary inputs to the display board produce the correct corresponding outputs on the demultiplexer.</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Demux output test #1</t>
+  </si>
+  <si>
+    <t>MPS-Display-02</t>
   </si>
 </sst>
 </file>
@@ -310,18 +310,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,7 +319,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -341,9 +344,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -629,7 +629,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,395 +644,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11" t="s">
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F15:G15"/>
@@ -1041,23 +1047,17 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
